--- a/NformTester/NformTester/Keywordscripts/900.20.10_ConfigureTrendingGraph.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.20.10_ConfigureTrendingGraph.xlsx
@@ -3834,87 +3834,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"31"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Day"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Previous=31 day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Previous=12 month.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Month"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Previous=1 year.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Year"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Previous=5 year.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Previous=28 day.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"28"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"31"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Day"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Previous=31 day.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Previous=12 month.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Month"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Previous=1 year.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Year"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Previous=5 year.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Previous=28 day.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"28"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3954,6 +3954,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3992,6 +3993,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4074,7 +4076,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4085,8 +4087,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4132,10 +4137,12 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="8">
@@ -4907,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5159,11 +5166,11 @@
       <c r="H8" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>862</v>
+      <c r="I8" s="19" t="s">
+        <v>880</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>881</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>796</v>
@@ -5278,8 +5285,8 @@
       <c r="G12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>862</v>
+      <c r="H12" s="19" t="s">
+        <v>881</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -5540,8 +5547,8 @@
       <c r="H21" s="11">
         <v>2</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>862</v>
+      <c r="I21" s="19" t="s">
+        <v>881</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -6103,7 +6110,7 @@
         <v>816</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J43" s="11" t="b">
         <v>1</v>
@@ -6298,7 +6305,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="5"/>
@@ -6354,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="5"/>
@@ -6380,7 +6387,7 @@
         <v>13</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="5"/>
@@ -6484,7 +6491,7 @@
         <v>824</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -6496,7 +6503,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="5"/>
@@ -6552,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="5"/>
@@ -6578,7 +6585,7 @@
         <v>13</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="5"/>
@@ -6682,7 +6689,7 @@
         <v>824</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -6694,7 +6701,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="5"/>
@@ -6750,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="5"/>
@@ -6776,7 +6783,7 @@
         <v>13</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="5"/>
@@ -6880,7 +6887,7 @@
         <v>824</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -6892,7 +6899,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="5"/>
@@ -6948,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I77" s="11"/>
       <c r="J77" s="5"/>
@@ -6974,7 +6981,7 @@
         <v>13</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I78" s="11"/>
       <c r="J78" s="5"/>
@@ -7030,10 +7037,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F81" s="5">
         <v>8</v>
@@ -7100,7 +7107,7 @@
         <v>824</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -7112,7 +7119,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="5"/>
@@ -7168,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I86" s="11"/>
       <c r="J86" s="5"/>
@@ -7194,7 +7201,7 @@
         <v>13</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I87" s="11"/>
       <c r="J87" s="5"/>
@@ -7298,7 +7305,7 @@
         <v>824</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
